--- a/API/grids.xlsx
+++ b/API/grids.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REMOTE\YandexDisk\МЭИ\ДИПЛОМ\Часть №2\Разбивка\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мотя2\YandexDisk\MPEI\DIP\part 2\split\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18636" windowHeight="12276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -150,18 +150,12 @@
     <t>С-90-15Р</t>
   </si>
   <si>
-    <t>Р-60-33А</t>
-  </si>
-  <si>
     <t>Р-23-14Ак</t>
   </si>
   <si>
     <t>Р-26-17Ак</t>
   </si>
   <si>
-    <t>Р-27-17Б</t>
-  </si>
-  <si>
     <t>Р-27-17Бк</t>
   </si>
   <si>
@@ -202,6 +196,60 @@
   </si>
   <si>
     <t>isOn</t>
+  </si>
+  <si>
+    <t>ins_angle_expression</t>
+  </si>
+  <si>
+    <t>Р-50-33А</t>
+  </si>
+  <si>
+    <t>Р-26-17Б</t>
+  </si>
+  <si>
+    <t>{angle} - 12.5 * ({t_rel} - 0.75) + 20.2</t>
+  </si>
+  <si>
+    <t>{angle} - 10.0 * ({t_rel} - 0.75) + 21.2</t>
+  </si>
+  <si>
+    <t>{angle} - 16.0 * ({t_rel} - 0.75) + 23.1</t>
+  </si>
+  <si>
+    <t>{angle} - 17.7 * ({t_rel} - 0.75) + 24.2</t>
+  </si>
+  <si>
+    <t>{angle} - 11.0 * ({t_rel} - 0.75) + 23.8</t>
+  </si>
+  <si>
+    <t>{angle} - 13.5 * ({t_rel} - 0.75) + 23.6</t>
+  </si>
+  <si>
+    <t>{angle} - 14.0 * ({t_rel} - 0.75) + 22.6</t>
+  </si>
+  <si>
+    <t>{angle} - 3.25 * ({t_rel} - 0.75) + 63.8</t>
+  </si>
+  <si>
+    <t>{angle} - 19.3 * ({t_rel} - 0.75) + 60.0</t>
+  </si>
+  <si>
+    <t>{angle} - 12.8 * ({t_rel} - 0.75) + 58.0</t>
+  </si>
+  <si>
+    <t>{angle} - 16.6 * ({t_rel} - 0.75) + 54.3</t>
+  </si>
+  <si>
+    <t>{angle} - 20.5 * ({t_rel} - 0.75) + 47.1</t>
+  </si>
+  <si>
+    <t>{angle} - 20.8 * ({t_rel} - 0.60) + 43.7</t>
+  </si>
+  <si>
+    <t>{angle} - 25.0 * ({t_rel} - 0.60) + 62.6</t>
+  </si>
+  <si>
+    <t>{angle} - 21.2 * ({t_rel} - 0.625) + 61.2</t>
   </si>
 </sst>
 </file>
@@ -222,7 +270,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,11 +319,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -280,9 +343,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,32 +658,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="7" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="12" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="3"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="12" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -619,22 +700,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
@@ -681,8 +762,11 @@
       <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="AB1" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -764,8 +848,11 @@
       <c r="AA2">
         <v>1.4750000000000001E-6</v>
       </c>
+      <c r="AB2" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -847,8 +934,11 @@
       <c r="AA3">
         <v>1.7400000000000001E-6</v>
       </c>
+      <c r="AB3" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -930,8 +1020,11 @@
       <c r="AA4">
         <v>1.39E-6</v>
       </c>
+      <c r="AB4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1013,8 +1106,11 @@
       <c r="AA5">
         <v>1.0449999999999999E-6</v>
       </c>
+      <c r="AB5" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1096,8 +1192,11 @@
       <c r="AA6">
         <v>6.8999999999999996E-7</v>
       </c>
+      <c r="AB6" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1179,8 +1278,12 @@
       <c r="AA7">
         <v>7.5300000000000003E-7</v>
       </c>
+      <c r="AB7" s="8">
+        <f>P7</f>
+        <v>48.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1262,8 +1365,12 @@
       <c r="AA8">
         <v>7.1900000000000002E-7</v>
       </c>
+      <c r="AB8" s="8">
+        <f>P8</f>
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1345,8 +1452,11 @@
       <c r="AA9">
         <v>7.1099999999999995E-7</v>
       </c>
+      <c r="AB9" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1394,7 +1504,7 @@
         <v>-1</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -1429,8 +1539,12 @@
       <c r="AA10">
         <v>-1</v>
       </c>
+      <c r="AB10" s="8">
+        <f>P10</f>
+        <v>52</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1478,7 +1592,7 @@
         <v>-1</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>64.5</v>
       </c>
       <c r="Q11">
         <v>-1</v>
@@ -1513,8 +1627,12 @@
       <c r="AA11">
         <v>-1</v>
       </c>
+      <c r="AB11" s="8">
+        <f>P11</f>
+        <v>64.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1680,7 @@
         <v>-1</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>64</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -1597,8 +1715,12 @@
       <c r="AA12">
         <v>-1</v>
       </c>
+      <c r="AB12" s="8">
+        <f t="shared" ref="AB12:AB20" si="1">P12</f>
+        <v>64</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1646,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>70</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -1681,8 +1803,12 @@
       <c r="AA13">
         <v>-1</v>
       </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1730,7 +1856,7 @@
         <v>-1</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>-1</v>
@@ -1765,94 +1891,102 @@
       <c r="AA14">
         <v>-1</v>
       </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="13">
         <v>0.67</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>22</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="13">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="13">
         <v>55</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="13">
         <v>90</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
         <v>0.9</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N15">
-        <v>-1</v>
-      </c>
-      <c r="O15">
-        <v>-1</v>
-      </c>
-      <c r="P15">
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15">
-        <v>-1</v>
-      </c>
-      <c r="T15">
-        <v>-1</v>
-      </c>
-      <c r="U15">
+      <c r="N15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="13">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="13">
         <v>1.8900000000000001E-4</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="13">
         <v>2.4199999999999995E-9</v>
       </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
+      <c r="W15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="13">
         <v>2.3499999999999995E-7</v>
       </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
+      <c r="Z15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="14">
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1898,7 +2032,7 @@
         <v>-1</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -1933,8 +2067,12 @@
       <c r="AA16">
         <v>-1</v>
       </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2016,176 +2154,187 @@
       <c r="AA17">
         <v>1.291E-6</v>
       </c>
+      <c r="AB17" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>0.68</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>10</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>14</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>70</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="9">
         <v>120</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="9">
         <v>1.4</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="9">
         <v>1.8</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="9">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="N18">
-        <v>-1</v>
-      </c>
-      <c r="O18">
-        <v>-1</v>
-      </c>
-      <c r="P18">
-        <v>-1</v>
-      </c>
-      <c r="Q18">
-        <v>-1</v>
-      </c>
-      <c r="R18">
-        <v>-1</v>
-      </c>
-      <c r="S18">
-        <v>-1</v>
-      </c>
-      <c r="T18">
-        <v>-1</v>
-      </c>
-      <c r="U18">
+      <c r="N18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="9">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="9">
         <v>2.3699999999999995E-9</v>
       </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
+      <c r="W18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="9">
         <v>3.2399999999999999E-7</v>
       </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
+      <c r="Z18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="10">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="15">
         <v>0.65</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="15">
         <v>13</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="15">
         <v>17</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="15">
         <v>70</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="15">
         <v>120</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="15">
         <v>1.4</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="15">
         <v>1.7</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="15">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N19">
-        <v>-1</v>
-      </c>
-      <c r="O19">
-        <v>-1</v>
-      </c>
-      <c r="P19">
-        <v>-1</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>-1</v>
-      </c>
-      <c r="S19">
-        <v>-1</v>
-      </c>
-      <c r="T19">
-        <v>-1</v>
-      </c>
-      <c r="U19">
+      <c r="N19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="15">
         <v>1.5299999999999999E-9</v>
       </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
+      <c r="W19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="15">
         <v>2.3799999999999996E-7</v>
       </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
+      <c r="Z19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2267,8 +2416,13 @@
       <c r="AA20" s="3">
         <v>6.6000000000000003E-7</v>
       </c>
+      <c r="AB20" s="8">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="AE20"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2350,8 +2504,11 @@
       <c r="AA21">
         <v>6.6000000000000003E-7</v>
       </c>
+      <c r="AB21" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2433,8 +2590,11 @@
       <c r="AA22">
         <v>4.82E-7</v>
       </c>
+      <c r="AB22" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2516,8 +2676,11 @@
       <c r="AA23">
         <v>4.3300000000000003E-7</v>
       </c>
+      <c r="AB23" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2599,8 +2762,11 @@
       <c r="AA24">
         <v>6.06E-7</v>
       </c>
+      <c r="AB24" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2682,10 +2848,13 @@
       <c r="AA25">
         <v>3.0100000000000001E-7</v>
       </c>
+      <c r="AB25" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -2765,8 +2934,11 @@
       <c r="AA26">
         <v>2.6199999999999999E-7</v>
       </c>
+      <c r="AB26" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2848,178 +3020,190 @@
       <c r="AA27">
         <v>1.98E-7</v>
       </c>
+      <c r="AB27" s="8">
+        <f t="shared" ref="AB27:AB29" si="2">P27</f>
+        <v>75.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F35" si="3">AVERAGE(D28:E28)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G28" s="9">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9">
+        <v>20</v>
+      </c>
+      <c r="J28" s="9">
+        <v>30</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="N28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="9">
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="V28" s="9">
+        <v>3.8700000000000001E-9</v>
+      </c>
+      <c r="W28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>3.3099999999999999E-7</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AB28" s="10">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
         <v>0.6</v>
       </c>
-      <c r="E28">
-        <v>0.75</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F35" si="1">AVERAGE(D28:E28)</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G28">
-        <v>12</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>20</v>
-      </c>
-      <c r="J28">
-        <v>30</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="E29" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="G29" s="9">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9">
+        <v>19</v>
+      </c>
+      <c r="I29" s="9">
+        <v>23</v>
+      </c>
+      <c r="J29" s="9">
+        <v>45</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
         <v>0.9</v>
       </c>
-      <c r="M28">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="N28">
-        <v>-1</v>
-      </c>
-      <c r="O28">
-        <v>-1</v>
-      </c>
-      <c r="P28">
-        <v>-1</v>
-      </c>
-      <c r="Q28">
-        <v>-1</v>
-      </c>
-      <c r="R28">
-        <v>-1</v>
-      </c>
-      <c r="S28">
-        <v>-1</v>
-      </c>
-      <c r="T28">
-        <v>-1</v>
-      </c>
-      <c r="U28">
-        <v>2.3499999999999999E-4</v>
-      </c>
-      <c r="V28">
-        <v>3.8700000000000001E-9</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>3.3099999999999999E-7</v>
-      </c>
-      <c r="Z28">
-        <v>-1</v>
-      </c>
-      <c r="AA28">
+      <c r="M29" s="9">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="N29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="9">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1.5199999999999999E-9</v>
+      </c>
+      <c r="W29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>1.6500000000000001E-7</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AB29" s="10">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0.6</v>
-      </c>
-      <c r="E29">
-        <v>0.7</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="G29">
-        <v>15</v>
-      </c>
-      <c r="H29">
-        <v>19</v>
-      </c>
-      <c r="I29">
-        <v>23</v>
-      </c>
-      <c r="J29">
-        <v>45</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0.9</v>
-      </c>
-      <c r="M29">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="N29">
-        <v>-1</v>
-      </c>
-      <c r="O29">
-        <v>-1</v>
-      </c>
-      <c r="P29">
-        <v>-1</v>
-      </c>
-      <c r="Q29">
-        <v>-1</v>
-      </c>
-      <c r="R29">
-        <v>-1</v>
-      </c>
-      <c r="S29">
-        <v>-1</v>
-      </c>
-      <c r="T29">
-        <v>-1</v>
-      </c>
-      <c r="U29">
-        <v>1.8100000000000001E-4</v>
-      </c>
-      <c r="V29">
-        <v>1.5199999999999999E-9</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>1.6500000000000001E-7</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -3034,7 +3218,7 @@
         <v>0.65</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
       <c r="G30">
@@ -3059,25 +3243,25 @@
         <v>0.254</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>2.5020000000000001E-2</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>4.6100000000000004E-3</v>
       </c>
       <c r="P30">
-        <v>-1</v>
+        <v>78.7</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>1.0370000000000001E-2</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>0.01</v>
       </c>
       <c r="U30">
         <v>2.0599999999999999E-4</v>
@@ -3086,108 +3270,119 @@
         <v>2.9600000000000001E-9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <f>0.89/100/100/100/100</f>
+        <v>8.9000000000000003E-9</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <f>0.42/100/100/100</f>
+        <v>4.2E-7</v>
       </c>
       <c r="Y30">
         <v>2.96E-7</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <f>6.86/100/100/100</f>
+        <v>6.8600000000000012E-6</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <f>0.592/100/100/100</f>
+        <v>5.9200000000000001E-7</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31">
+    <row r="31" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <v>0.68</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>15</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="9">
         <v>19</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="9">
         <v>23</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="9">
         <v>45</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="9">
         <v>0.85</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="9">
         <v>2.54</v>
       </c>
-      <c r="N31">
-        <v>-1</v>
-      </c>
-      <c r="O31">
-        <v>-1</v>
-      </c>
-      <c r="P31">
-        <v>-1</v>
-      </c>
-      <c r="Q31">
-        <v>-1</v>
-      </c>
-      <c r="R31">
-        <v>-1</v>
-      </c>
-      <c r="S31">
-        <v>-1</v>
-      </c>
-      <c r="T31">
-        <v>-1</v>
-      </c>
-      <c r="U31">
+      <c r="N31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="9">
         <v>1.7899999999999999E-4</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="9">
         <v>2.16E-9</v>
       </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
+      <c r="W31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y31" s="9">
         <v>2.16E-7</v>
       </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
+      <c r="Z31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AB31" s="10">
+        <f t="shared" ref="AB31" si="4">P31</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -3267,10 +3462,13 @@
       <c r="AA32">
         <v>2.3900000000000001E-7</v>
       </c>
+      <c r="AB32" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -3285,7 +3483,7 @@
         <v>0.65</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G33">
@@ -3316,7 +3514,7 @@
         <v>-1</v>
       </c>
       <c r="P33">
-        <v>-1</v>
+        <v>78</v>
       </c>
       <c r="Q33">
         <v>-1</v>
@@ -3351,176 +3549,192 @@
       <c r="AA33">
         <v>-1</v>
       </c>
+      <c r="AB33" s="8">
+        <f t="shared" ref="AB33:AB35" si="5">P33</f>
+        <v>78</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34">
+    <row r="34" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
         <v>0.6</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <v>0.7</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
+      <c r="F34" s="9">
+        <f t="shared" si="3"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>16</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="9">
         <v>20</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="9">
         <v>19</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="9">
         <v>24</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="9">
         <v>1.3</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="9">
         <v>1.6</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="9">
         <v>0.02</v>
       </c>
-      <c r="N34">
-        <v>-1</v>
-      </c>
-      <c r="O34">
-        <v>-1</v>
-      </c>
-      <c r="P34">
-        <v>-1</v>
-      </c>
-      <c r="Q34">
-        <v>-1</v>
-      </c>
-      <c r="R34">
-        <v>-1</v>
-      </c>
-      <c r="S34">
-        <v>-1</v>
-      </c>
-      <c r="T34">
-        <v>-1</v>
-      </c>
-      <c r="U34">
+      <c r="N34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="9">
         <v>1.1599999999999999E-4</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="9">
         <v>1.1799999999999999E-9</v>
       </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
-      <c r="Y34">
+      <c r="W34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="9">
         <v>1.4199999999999997E-7</v>
       </c>
-      <c r="Z34">
-        <v>-1</v>
-      </c>
-      <c r="AA34">
+      <c r="Z34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="10">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35">
+    <row r="35" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
         <v>0.54</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <v>0.67</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>20</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="9">
         <v>24</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="9">
         <v>23</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="9">
         <v>27</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="9">
         <v>1.35</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="9">
         <v>1.6</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="9">
         <v>0.02</v>
       </c>
-      <c r="N35">
-        <v>-1</v>
-      </c>
-      <c r="O35">
-        <v>-1</v>
-      </c>
-      <c r="P35">
-        <v>-1</v>
-      </c>
-      <c r="Q35">
-        <v>-1</v>
-      </c>
-      <c r="R35">
-        <v>-1</v>
-      </c>
-      <c r="S35">
-        <v>-1</v>
-      </c>
-      <c r="T35">
-        <v>-1</v>
-      </c>
-      <c r="U35">
+      <c r="N35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="9">
         <v>9.8999999999999994E-5</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="9">
         <v>8.400000000000001E-10</v>
       </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
+      <c r="W35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Y35" s="9">
         <v>1.0000000000000001E-7</v>
       </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
-      <c r="AA35">
+      <c r="Z35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AB35" s="10">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="AB36"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/API/grids.xlsx
+++ b/API/grids.xlsx
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
